--- a/Spacecraft/original_linkdata.xlsx
+++ b/Spacecraft/original_linkdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paul\Other\python\projects\AE2111\Spacecraft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0890997C-2F84-4D68-8EB8-BE802B48B61A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{072E4B74-E1B6-4F32-9657-3BDEF5EA52F9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8694" yWindow="5108" windowWidth="19563" windowHeight="10257" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2663" yWindow="2663" windowWidth="19562" windowHeight="10256" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
   <si>
     <t>Parameter</t>
   </si>
@@ -551,8 +551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -613,7 +613,7 @@
       <c r="G2" s="6">
         <v>800</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="8">
         <v>40</v>
       </c>
       <c r="I2" s="5"/>
@@ -673,8 +673,8 @@
       <c r="G4" s="8">
         <v>1000</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>23</v>
+      <c r="H4" s="11">
+        <v>400</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>

--- a/Spacecraft/original_linkdata.xlsx
+++ b/Spacecraft/original_linkdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paul\Other\python\projects\AE2111\Spacecraft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{072E4B74-E1B6-4F32-9657-3BDEF5EA52F9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4788EAF6-E959-4774-9E4D-C3C7B345EBAF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2663" yWindow="2663" windowWidth="19562" windowHeight="10256" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="19563" windowHeight="10257" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="46">
   <si>
     <t>Parameter</t>
   </si>
@@ -151,6 +151,24 @@
   </si>
   <si>
     <t>S/C-Sun distance</t>
+  </si>
+  <si>
+    <t>Parent body</t>
+  </si>
+  <si>
+    <t>Earth</t>
+  </si>
+  <si>
+    <t>Moon</t>
+  </si>
+  <si>
+    <t>Mars</t>
+  </si>
+  <si>
+    <t>Venus</t>
+  </si>
+  <si>
+    <t>Europa</t>
   </si>
 </sst>
 </file>
@@ -552,7 +570,7 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -877,7 +895,7 @@
         <v>350</v>
       </c>
       <c r="D11" s="13">
-        <v>384400</v>
+        <v>1000</v>
       </c>
       <c r="E11" s="5">
         <v>500</v>
@@ -1238,14 +1256,30 @@
       <c r="L22" s="5"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
+      <c r="A23" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>

--- a/Spacecraft/original_linkdata.xlsx
+++ b/Spacecraft/original_linkdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paul\Other\python\projects\AE2111\Spacecraft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4788EAF6-E959-4774-9E4D-C3C7B345EBAF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27AD8F44-5D63-4FE8-AB22-4AF4DB4DB396}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="19563" windowHeight="10257" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3777" windowWidth="19562" windowHeight="10256" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -570,7 +570,7 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -1092,7 +1092,7 @@
         <v>0.01</v>
       </c>
       <c r="H17" s="5">
-        <v>21600</v>
+        <v>60</v>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>

--- a/Spacecraft/original_linkdata.xlsx
+++ b/Spacecraft/original_linkdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paul\Other\python\projects\AE2111\Spacecraft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27AD8F44-5D63-4FE8-AB22-4AF4DB4DB396}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{082BA012-0662-46E6-AC09-15D3B130C983}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3777" windowWidth="19562" windowHeight="10256" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1902" yWindow="1902" windowWidth="22143" windowHeight="14142" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="46">
   <si>
     <t>Parameter</t>
   </si>
@@ -138,9 +138,6 @@
     <t>Modulation/coding type</t>
   </si>
   <si>
-    <t>FSK</t>
-  </si>
-  <si>
     <t>Required BER</t>
   </si>
   <si>
@@ -169,6 +166,9 @@
   </si>
   <si>
     <t>Europa</t>
+  </si>
+  <si>
+    <t>8FSK</t>
   </si>
 </sst>
 </file>
@@ -570,7 +570,7 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -587,7 +587,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -602,7 +602,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
@@ -946,7 +946,7 @@
     </row>
     <row r="13" spans="1:12" ht="14.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>20</v>
@@ -1194,25 +1194,25 @@
         <v>34</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="5">
-        <v>8</v>
-      </c>
-      <c r="D21" s="5">
-        <v>8</v>
-      </c>
-      <c r="E21" s="5">
-        <v>8</v>
-      </c>
-      <c r="F21" s="5">
-        <v>8</v>
-      </c>
-      <c r="G21" s="5">
-        <v>8</v>
-      </c>
-      <c r="H21" s="5">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
@@ -1221,7 +1221,7 @@
     </row>
     <row r="22" spans="1:12" ht="14.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>11</v>
@@ -1257,28 +1257,28 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="E23" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="F23" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="F23" s="13" t="s">
+      <c r="G23" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="G23" s="12" t="s">
-        <v>45</v>
-      </c>
       <c r="H23" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
